--- a/app/Recursos Marcas/Beisik/Plantilla Carga Masiva - Molova.xlsx
+++ b/app/Recursos Marcas/Beisik/Plantilla Carga Masiva - Molova.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo\Documents\MOLOVA\Recursos Marcas\Beisik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joel/Documents/Molova/molova_api/app/Recursos Marcas/Beisik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C9DFDF-400B-4A27-96CB-D7DE84B21C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D542B7B6-3DF2-C44E-AF22-C1F80E9BCF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="6" r:id="rId1"/>
@@ -980,7 +980,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1195,6 +1195,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1203,13 +1210,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1237,7 +1237,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1539,33 +1539,33 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" customWidth="1"/>
-    <col min="4" max="4" width="106.28515625" customWidth="1"/>
-    <col min="5" max="5" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="4" max="4" width="106.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16" thickBot="1"/>
+    <row r="8" spans="1:5" ht="17" thickBot="1">
       <c r="B8" s="4" t="s">
         <v>51</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="33" thickBot="1">
       <c r="B9" s="9" t="s">
         <v>47</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="33" thickBot="1">
       <c r="B10" s="9" t="s">
         <v>69</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="33" thickBot="1">
       <c r="B11" s="9" t="s">
         <v>50</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="B12" s="9" t="s">
         <v>71</v>
       </c>
@@ -1635,8 +1635,8 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+    <row r="13" spans="1:5" ht="16">
+      <c r="B13" s="24" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -1649,15 +1649,15 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="22"/>
+    <row r="14" spans="1:5" ht="17" thickBot="1">
+      <c r="B14" s="25"/>
       <c r="C14" s="11"/>
       <c r="D14" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="33" thickBot="1">
       <c r="B15" s="9" t="s">
         <v>74</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="33" thickBot="1">
       <c r="B16" s="9" t="s">
         <v>76</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="49" thickBot="1">
       <c r="B17" s="9" t="s">
         <v>49</v>
       </c>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="49" thickBot="1">
       <c r="B18" s="9" t="s">
         <v>109</v>
       </c>
@@ -1711,193 +1711,193 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
+    <row r="20" spans="1:5">
+      <c r="B20" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="20"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="23"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="B28" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="B29" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="B30" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="B31" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="B32" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2">
       <c r="B34" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2">
       <c r="B38" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2">
       <c r="B39" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2">
       <c r="B40" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2">
       <c r="B41" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2">
       <c r="B43" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2">
       <c r="B47" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2">
       <c r="B48" s="15"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3">
       <c r="B53" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3">
       <c r="B54" s="15"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3">
       <c r="B55" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3">
       <c r="B56" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3">
       <c r="B57" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3">
       <c r="B58" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C58" s="15"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3">
       <c r="B59" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3">
       <c r="B60" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3">
       <c r="B61" s="15"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3">
       <c r="B62" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3">
       <c r="B63" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3">
       <c r="B64" s="15"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2">
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2">
       <c r="B66" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2">
       <c r="B67" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2">
       <c r="B68" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2">
       <c r="B69" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2">
       <c r="B70" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2">
       <c r="B71" s="17"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2">
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2">
       <c r="B73" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2">
       <c r="B74" s="1" t="s">
         <v>103</v>
       </c>
@@ -1916,30 +1916,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" hidden="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1"/>
+    <col min="15" max="16384" width="11.5" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1983,393 +1983,393 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="1:14" ht="32">
+      <c r="B2" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="21">
         <v>60000</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2">
         <v>51000</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="1:14" ht="32">
+      <c r="B3" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="21">
         <v>60000</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3">
         <v>51000</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+    <row r="4" spans="1:14" ht="32">
+      <c r="B4" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="21">
         <v>60000</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4">
         <v>51000</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="1:14" ht="32">
+      <c r="B5" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="21">
         <v>60000</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5">
         <v>51000</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+    <row r="6" spans="1:14" ht="32">
+      <c r="B6" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <v>50000</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6">
         <v>42500</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
+    <row r="7" spans="1:14" ht="48">
+      <c r="B7" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="21">
         <v>70000</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7">
         <v>59500</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+    <row r="8" spans="1:14" ht="32">
+      <c r="B8" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="21">
         <v>58000</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8">
         <v>49300</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
+    <row r="9" spans="1:14" ht="32">
+      <c r="B9" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="21">
         <v>58000</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9">
         <v>49300</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
+    <row r="10" spans="1:14" ht="32">
+      <c r="B10" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="21">
         <v>120000</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10">
         <v>102000</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
+    <row r="11" spans="1:14" ht="32">
+      <c r="B11" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="21">
         <v>120000</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11">
         <v>102000</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+    <row r="12" spans="1:14" ht="32">
+      <c r="B12" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="21">
         <v>130000</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12">
         <v>110500</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+    <row r="13" spans="1:14" ht="32">
+      <c r="B13" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="21">
         <v>59000</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13">
         <v>50000</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
+    <row r="14" spans="1:14" ht="32">
+      <c r="B14" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="21">
         <v>190000</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14">
         <v>161500</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
+    <row r="15" spans="1:14" ht="48">
+      <c r="B15" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="21">
         <v>250000</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15">
         <v>212500</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
+    <row r="16" spans="1:14" ht="32">
+      <c r="B16" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="21">
         <v>120000</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16">
         <v>102000</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="21" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2435,16 +2435,16 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="G6" t="s">
         <v>27</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="G7" t="s">
         <v>28</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="I8" t="s">
         <v>37</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="I9" t="s">
         <v>38</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="I10" t="s">
         <v>39</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="I11" t="s">
         <v>40</v>
       </c>
@@ -2631,27 +2631,27 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="J12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="J13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="J14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="J15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="J16" t="s">
         <v>136</v>
       </c>

--- a/app/Recursos Marcas/Beisik/Plantilla Carga Masiva - Molova.xlsx
+++ b/app/Recursos Marcas/Beisik/Plantilla Carga Masiva - Molova.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joel/Documents/Molova/molova_api/app/Recursos Marcas/Beisik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D542B7B6-3DF2-C44E-AF22-C1F80E9BCF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B189D43C-2443-7C48-ACB9-57DEDDB37727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1916,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15"/>
@@ -1993,9 +1993,6 @@
       <c r="D2" s="21">
         <v>60000</v>
       </c>
-      <c r="E2">
-        <v>51000</v>
-      </c>
       <c r="F2" s="21" t="s">
         <v>41</v>
       </c>
@@ -2019,9 +2016,6 @@
       <c r="D3" s="21">
         <v>60000</v>
       </c>
-      <c r="E3">
-        <v>51000</v>
-      </c>
       <c r="F3" s="21" t="s">
         <v>41</v>
       </c>
@@ -2045,9 +2039,6 @@
       <c r="D4" s="21">
         <v>60000</v>
       </c>
-      <c r="E4">
-        <v>51000</v>
-      </c>
       <c r="F4" s="21" t="s">
         <v>41</v>
       </c>
@@ -2071,9 +2062,6 @@
       <c r="D5" s="21">
         <v>60000</v>
       </c>
-      <c r="E5">
-        <v>51000</v>
-      </c>
       <c r="F5" s="21" t="s">
         <v>41</v>
       </c>
@@ -2097,9 +2085,6 @@
       <c r="D6" s="21">
         <v>50000</v>
       </c>
-      <c r="E6">
-        <v>42500</v>
-      </c>
       <c r="F6" s="21" t="s">
         <v>41</v>
       </c>
@@ -2123,9 +2108,6 @@
       <c r="D7" s="21">
         <v>70000</v>
       </c>
-      <c r="E7">
-        <v>59500</v>
-      </c>
       <c r="F7" s="21" t="s">
         <v>41</v>
       </c>
@@ -2149,9 +2131,6 @@
       <c r="D8" s="21">
         <v>58000</v>
       </c>
-      <c r="E8">
-        <v>49300</v>
-      </c>
       <c r="F8" s="21" t="s">
         <v>41</v>
       </c>
@@ -2175,9 +2154,6 @@
       <c r="D9" s="21">
         <v>58000</v>
       </c>
-      <c r="E9">
-        <v>49300</v>
-      </c>
       <c r="F9" s="21" t="s">
         <v>41</v>
       </c>
@@ -2201,9 +2177,6 @@
       <c r="D10" s="21">
         <v>120000</v>
       </c>
-      <c r="E10">
-        <v>102000</v>
-      </c>
       <c r="F10" s="21" t="s">
         <v>42</v>
       </c>
@@ -2227,9 +2200,6 @@
       <c r="D11" s="21">
         <v>120000</v>
       </c>
-      <c r="E11">
-        <v>102000</v>
-      </c>
       <c r="F11" s="21" t="s">
         <v>42</v>
       </c>
@@ -2253,9 +2223,6 @@
       <c r="D12" s="21">
         <v>130000</v>
       </c>
-      <c r="E12">
-        <v>110500</v>
-      </c>
       <c r="F12" s="21" t="s">
         <v>45</v>
       </c>
@@ -2279,9 +2246,6 @@
       <c r="D13" s="21">
         <v>59000</v>
       </c>
-      <c r="E13">
-        <v>50000</v>
-      </c>
       <c r="F13" s="21" t="s">
         <v>41</v>
       </c>
@@ -2305,9 +2269,6 @@
       <c r="D14" s="21">
         <v>190000</v>
       </c>
-      <c r="E14">
-        <v>161500</v>
-      </c>
       <c r="F14" s="21" t="s">
         <v>18</v>
       </c>
@@ -2331,9 +2292,6 @@
       <c r="D15" s="21">
         <v>250000</v>
       </c>
-      <c r="E15">
-        <v>212500</v>
-      </c>
       <c r="F15" s="21" t="s">
         <v>45</v>
       </c>
@@ -2356,9 +2314,6 @@
       </c>
       <c r="D16" s="21">
         <v>120000</v>
-      </c>
-      <c r="E16">
-        <v>102000</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>43</v>
